--- a/HARGA SK/SK JUNI CITY VIEW.xlsx
+++ b/HARGA SK/SK JUNI CITY VIEW.xlsx
@@ -2088,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2204,9 @@
       <c r="G3" s="36">
         <v>1971706000</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
       <c r="I3" s="35">
         <v>2218915725.229867</v>
       </c>
@@ -2250,7 +2252,9 @@
       <c r="G4" s="36">
         <v>1553465000</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
       <c r="I4" s="35">
         <v>1748235827.698082</v>
       </c>
@@ -2296,7 +2300,9 @@
       <c r="G5" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
       <c r="I5" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -2342,7 +2348,9 @@
       <c r="G6" s="36">
         <v>1702837000</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
       <c r="I6" s="35">
         <v>1916336549.4434288</v>
       </c>
@@ -2388,7 +2396,9 @@
       <c r="G7" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
       <c r="I7" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -2434,7 +2444,9 @@
       <c r="G8" s="36">
         <v>2539318000</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
       <c r="I8" s="35">
         <v>2857694221.1518121</v>
       </c>
@@ -2480,7 +2492,9 @@
       <c r="G9" s="36">
         <v>1523591000</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
       <c r="I9" s="35">
         <v>1714616745.0266058</v>
       </c>
@@ -2526,7 +2540,9 @@
       <c r="G10" s="36">
         <v>2181147000</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
       <c r="I10" s="35">
         <v>2454615582.6999097</v>
       </c>
@@ -2572,7 +2588,9 @@
       <c r="G11" s="36">
         <v>3082195000</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
       <c r="I11" s="35">
         <v>3468635530.5757432</v>
       </c>
@@ -2618,7 +2636,9 @@
       <c r="G12" s="36">
         <v>1971706000</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
       <c r="I12" s="35">
         <v>2218915725.229867</v>
       </c>
@@ -2664,7 +2684,9 @@
       <c r="G13" s="36">
         <v>1553465000</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
       <c r="I13" s="35">
         <v>1748235827.698082</v>
       </c>
@@ -2710,7 +2732,9 @@
       <c r="G14" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
       <c r="I14" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -2756,7 +2780,9 @@
       <c r="G15" s="36">
         <v>1702837000</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
       <c r="I15" s="35">
         <v>1916336549.4434288</v>
       </c>
@@ -2802,7 +2828,9 @@
       <c r="G16" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
       <c r="I16" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -2848,7 +2876,9 @@
       <c r="G17" s="36">
         <v>2539318000</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
       <c r="I17" s="35">
         <v>2857694221.1518121</v>
       </c>
@@ -2894,7 +2924,9 @@
       <c r="G18" s="36">
         <v>1523591000</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
       <c r="I18" s="35">
         <v>1714616745.0266058</v>
       </c>
@@ -2940,7 +2972,9 @@
       <c r="G19" s="36">
         <v>2181147000</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
       <c r="I19" s="35">
         <v>2454615582.6999097</v>
       </c>
@@ -2986,7 +3020,9 @@
       <c r="G20" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H20" s="36"/>
+      <c r="H20" s="36">
+        <v>0</v>
+      </c>
       <c r="I20" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -3032,7 +3068,9 @@
       <c r="G21" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H21" s="36"/>
+      <c r="H21" s="36">
+        <v>0</v>
+      </c>
       <c r="I21" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -3078,7 +3116,9 @@
       <c r="G22" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H22" s="36"/>
+      <c r="H22" s="36">
+        <v>0</v>
+      </c>
       <c r="I22" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -3124,7 +3164,9 @@
       <c r="G23" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="36">
+        <v>0</v>
+      </c>
       <c r="I23" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -3170,7 +3212,9 @@
       <c r="G24" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
       <c r="I24" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -3216,7 +3260,9 @@
       <c r="G25" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="36">
+        <v>0</v>
+      </c>
       <c r="I25" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -3262,7 +3308,9 @@
       <c r="G26" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="36">
+        <v>0</v>
+      </c>
       <c r="I26" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -3308,7 +3356,9 @@
       <c r="G27" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="36">
+        <v>0</v>
+      </c>
       <c r="I27" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -3354,7 +3404,9 @@
       <c r="G28" s="36">
         <v>3082195000</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="36">
+        <v>0</v>
+      </c>
       <c r="I28" s="35">
         <v>3468635530.5757432</v>
       </c>
@@ -3400,7 +3452,9 @@
       <c r="G29" s="36">
         <v>1971706000</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="36">
+        <v>0</v>
+      </c>
       <c r="I29" s="35">
         <v>2218915725.229867</v>
       </c>
@@ -3446,7 +3500,9 @@
       <c r="G30" s="36">
         <v>1553465000</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="36">
+        <v>0</v>
+      </c>
       <c r="I30" s="35">
         <v>1748235827.698082</v>
       </c>
@@ -3489,7 +3545,9 @@
       <c r="G31" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H31" s="36"/>
+      <c r="H31" s="36">
+        <v>0</v>
+      </c>
       <c r="I31" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -3532,7 +3590,9 @@
       <c r="G32" s="36">
         <v>1702837000</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="36">
+        <v>0</v>
+      </c>
       <c r="I32" s="35">
         <v>1916336549.4434288</v>
       </c>
@@ -3575,7 +3635,9 @@
       <c r="G33" s="36">
         <v>2539318000</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="36">
+        <v>0</v>
+      </c>
       <c r="I33" s="35">
         <v>2857694221.1518121</v>
       </c>
@@ -3618,7 +3680,9 @@
       <c r="G34" s="36">
         <v>1523591000</v>
       </c>
-      <c r="H34" s="36"/>
+      <c r="H34" s="36">
+        <v>0</v>
+      </c>
       <c r="I34" s="35">
         <v>1714616745.0266058</v>
       </c>
@@ -3661,7 +3725,9 @@
       <c r="G35" s="36">
         <v>2181147000</v>
       </c>
-      <c r="H35" s="36"/>
+      <c r="H35" s="36">
+        <v>0</v>
+      </c>
       <c r="I35" s="35">
         <v>2454615582.6999097</v>
       </c>
@@ -3704,7 +3770,9 @@
       <c r="G36" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H36" s="36"/>
+      <c r="H36" s="36">
+        <v>0</v>
+      </c>
       <c r="I36" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -3747,7 +3815,9 @@
       <c r="G37" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H37" s="36"/>
+      <c r="H37" s="36">
+        <v>0</v>
+      </c>
       <c r="I37" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -3790,7 +3860,9 @@
       <c r="G38" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H38" s="36"/>
+      <c r="H38" s="36">
+        <v>0</v>
+      </c>
       <c r="I38" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -3833,7 +3905,9 @@
       <c r="G39" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H39" s="36"/>
+      <c r="H39" s="36">
+        <v>0</v>
+      </c>
       <c r="I39" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -3876,7 +3950,9 @@
       <c r="G40" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H40" s="36"/>
+      <c r="H40" s="36">
+        <v>0</v>
+      </c>
       <c r="I40" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -3919,7 +3995,9 @@
       <c r="G41" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H41" s="36"/>
+      <c r="H41" s="36">
+        <v>0</v>
+      </c>
       <c r="I41" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -3962,7 +4040,9 @@
       <c r="G42" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="36">
+        <v>0</v>
+      </c>
       <c r="I42" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -4005,7 +4085,9 @@
       <c r="G43" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="36">
+        <v>0</v>
+      </c>
       <c r="I43" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -4048,7 +4130,9 @@
       <c r="G44" s="36">
         <v>3082195000</v>
       </c>
-      <c r="H44" s="36"/>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
       <c r="I44" s="35">
         <v>3468635530.5757432</v>
       </c>
@@ -4091,7 +4175,9 @@
       <c r="G45" s="36">
         <v>1971706000</v>
       </c>
-      <c r="H45" s="36"/>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
       <c r="I45" s="35">
         <v>2218915725.229867</v>
       </c>
@@ -4134,7 +4220,9 @@
       <c r="G46" s="36">
         <v>1553465000</v>
       </c>
-      <c r="H46" s="36"/>
+      <c r="H46" s="36">
+        <v>0</v>
+      </c>
       <c r="I46" s="35">
         <v>1748235827.698082</v>
       </c>
@@ -4177,7 +4265,9 @@
       <c r="G47" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H47" s="36"/>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
       <c r="I47" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -4220,7 +4310,9 @@
       <c r="G48" s="36">
         <v>1702837000</v>
       </c>
-      <c r="H48" s="36"/>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
       <c r="I48" s="35">
         <v>1916336549.4434288</v>
       </c>
@@ -4263,7 +4355,9 @@
       <c r="G49" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H49" s="36"/>
+      <c r="H49" s="36">
+        <v>0</v>
+      </c>
       <c r="I49" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -4306,7 +4400,9 @@
       <c r="G50" s="36">
         <v>2539318000</v>
       </c>
-      <c r="H50" s="36"/>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
       <c r="I50" s="35">
         <v>2857694221.1518121</v>
       </c>
@@ -4349,7 +4445,9 @@
       <c r="G51" s="36">
         <v>1523591000</v>
       </c>
-      <c r="H51" s="36"/>
+      <c r="H51" s="36">
+        <v>0</v>
+      </c>
       <c r="I51" s="35">
         <v>1714616745.0266058</v>
       </c>
@@ -4392,7 +4490,9 @@
       <c r="G52" s="36">
         <v>2181147000</v>
       </c>
-      <c r="H52" s="36"/>
+      <c r="H52" s="36">
+        <v>0</v>
+      </c>
       <c r="I52" s="35">
         <v>2454615582.6999097</v>
       </c>
@@ -4435,7 +4535,9 @@
       <c r="G53" s="36">
         <v>3082195000</v>
       </c>
-      <c r="H53" s="36"/>
+      <c r="H53" s="36">
+        <v>0</v>
+      </c>
       <c r="I53" s="35">
         <v>3468635530.5757432</v>
       </c>
@@ -4478,7 +4580,9 @@
       <c r="G54" s="36">
         <v>1971706000</v>
       </c>
-      <c r="H54" s="36"/>
+      <c r="H54" s="36">
+        <v>0</v>
+      </c>
       <c r="I54" s="35">
         <v>2218915725.229867</v>
       </c>
@@ -4521,7 +4625,9 @@
       <c r="G55" s="36">
         <v>1553465000</v>
       </c>
-      <c r="H55" s="36"/>
+      <c r="H55" s="36">
+        <v>0</v>
+      </c>
       <c r="I55" s="35">
         <v>1748235827.698082</v>
       </c>
@@ -4564,7 +4670,9 @@
       <c r="G56" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H56" s="36"/>
+      <c r="H56" s="36">
+        <v>0</v>
+      </c>
       <c r="I56" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -4607,7 +4715,9 @@
       <c r="G57" s="36">
         <v>1702837000</v>
       </c>
-      <c r="H57" s="36"/>
+      <c r="H57" s="36">
+        <v>0</v>
+      </c>
       <c r="I57" s="35">
         <v>1916336549.4434288</v>
       </c>
@@ -4650,7 +4760,9 @@
       <c r="G58" s="36">
         <v>1882083000</v>
       </c>
-      <c r="H58" s="36"/>
+      <c r="H58" s="36">
+        <v>0</v>
+      </c>
       <c r="I58" s="35">
         <v>2118055292.1826584</v>
       </c>
@@ -4693,7 +4805,9 @@
       <c r="G59" s="36">
         <v>2539318000</v>
       </c>
-      <c r="H59" s="36"/>
+      <c r="H59" s="36">
+        <v>0</v>
+      </c>
       <c r="I59" s="35">
         <v>2857694221.1518121</v>
       </c>
@@ -4736,7 +4850,9 @@
       <c r="G60" s="36">
         <v>1523591000</v>
       </c>
-      <c r="H60" s="36"/>
+      <c r="H60" s="36">
+        <v>0</v>
+      </c>
       <c r="I60" s="35">
         <v>1714616745.0266058</v>
       </c>
@@ -4779,7 +4895,9 @@
       <c r="G61" s="36">
         <v>2181147000</v>
       </c>
-      <c r="H61" s="36"/>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
       <c r="I61" s="35">
         <v>2454615582.6999097</v>
       </c>
@@ -4822,7 +4940,9 @@
       <c r="G62" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H62" s="36"/>
+      <c r="H62" s="36">
+        <v>0</v>
+      </c>
       <c r="I62" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -4865,7 +4985,9 @@
       <c r="G63" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H63" s="36"/>
+      <c r="H63" s="36">
+        <v>0</v>
+      </c>
       <c r="I63" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -4908,7 +5030,9 @@
       <c r="G64" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H64" s="36"/>
+      <c r="H64" s="36">
+        <v>0</v>
+      </c>
       <c r="I64" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -4951,7 +5075,9 @@
       <c r="G65" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H65" s="36"/>
+      <c r="H65" s="36">
+        <v>0</v>
+      </c>
       <c r="I65" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -4994,7 +5120,9 @@
       <c r="G66" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H66" s="36"/>
+      <c r="H66" s="36">
+        <v>0</v>
+      </c>
       <c r="I66" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -5037,7 +5165,9 @@
       <c r="G67" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H67" s="36"/>
+      <c r="H67" s="36">
+        <v>0</v>
+      </c>
       <c r="I67" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -5080,7 +5210,9 @@
       <c r="G68" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36">
+        <v>0</v>
+      </c>
       <c r="I68" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -5123,7 +5255,9 @@
       <c r="G69" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H69" s="36"/>
+      <c r="H69" s="36">
+        <v>0</v>
+      </c>
       <c r="I69" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -5166,7 +5300,9 @@
       <c r="G70" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H70" s="36"/>
+      <c r="H70" s="36">
+        <v>0</v>
+      </c>
       <c r="I70" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -5209,7 +5345,9 @@
       <c r="G71" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H71" s="36"/>
+      <c r="H71" s="36">
+        <v>0</v>
+      </c>
       <c r="I71" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -5252,7 +5390,9 @@
       <c r="G72" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H72" s="36"/>
+      <c r="H72" s="36">
+        <v>0</v>
+      </c>
       <c r="I72" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -5295,7 +5435,9 @@
       <c r="G73" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H73" s="36"/>
+      <c r="H73" s="36">
+        <v>0</v>
+      </c>
       <c r="I73" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -5338,7 +5480,9 @@
       <c r="G74" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H74" s="36"/>
+      <c r="H74" s="36">
+        <v>0</v>
+      </c>
       <c r="I74" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -5381,7 +5525,9 @@
       <c r="G75" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H75" s="36"/>
+      <c r="H75" s="36">
+        <v>0</v>
+      </c>
       <c r="I75" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -5424,7 +5570,9 @@
       <c r="G76" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H76" s="36"/>
+      <c r="H76" s="36">
+        <v>0</v>
+      </c>
       <c r="I76" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -5467,7 +5615,9 @@
       <c r="G77" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H77" s="36"/>
+      <c r="H77" s="36">
+        <v>0</v>
+      </c>
       <c r="I77" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -5510,7 +5660,9 @@
       <c r="G78" s="36">
         <v>3143839000</v>
       </c>
-      <c r="H78" s="36"/>
+      <c r="H78" s="36">
+        <v>0</v>
+      </c>
       <c r="I78" s="35">
         <v>3538008729.5589514</v>
       </c>
@@ -5553,7 +5705,9 @@
       <c r="G79" s="36">
         <v>2011140000</v>
       </c>
-      <c r="H79" s="36"/>
+      <c r="H79" s="36">
+        <v>0</v>
+      </c>
       <c r="I79" s="35">
         <v>2263293848.6324973</v>
       </c>
@@ -5596,7 +5750,9 @@
       <c r="G80" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H80" s="36"/>
+      <c r="H80" s="36">
+        <v>0</v>
+      </c>
       <c r="I80" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -5639,7 +5795,9 @@
       <c r="G81" s="36">
         <v>1736894000</v>
       </c>
-      <c r="H81" s="36"/>
+      <c r="H81" s="36">
+        <v>0</v>
+      </c>
       <c r="I81" s="35">
         <v>1954663110.5638826</v>
       </c>
@@ -5682,7 +5840,9 @@
       <c r="G82" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H82" s="36"/>
+      <c r="H82" s="36">
+        <v>0</v>
+      </c>
       <c r="I82" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -5725,7 +5885,9 @@
       <c r="G83" s="36">
         <v>2590104000</v>
       </c>
-      <c r="H83" s="36"/>
+      <c r="H83" s="36">
+        <v>0</v>
+      </c>
       <c r="I83" s="35">
         <v>2914847511.0353961</v>
       </c>
@@ -5768,7 +5930,9 @@
       <c r="G84" s="36">
         <v>1554063000</v>
       </c>
-      <c r="H84" s="36"/>
+      <c r="H84" s="36">
+        <v>0</v>
+      </c>
       <c r="I84" s="35">
         <v>1748908931.292275</v>
       </c>
@@ -5811,7 +5975,9 @@
       <c r="G85" s="36">
         <v>2224770000</v>
       </c>
-      <c r="H85" s="36"/>
+      <c r="H85" s="36">
+        <v>0</v>
+      </c>
       <c r="I85" s="35">
         <v>2503708616.2946715</v>
       </c>
@@ -5854,7 +6020,9 @@
       <c r="G86" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H86" s="36"/>
+      <c r="H86" s="36">
+        <v>0</v>
+      </c>
       <c r="I86" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -5897,7 +6065,9 @@
       <c r="G87" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H87" s="36"/>
+      <c r="H87" s="36">
+        <v>0</v>
+      </c>
       <c r="I87" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -5940,7 +6110,9 @@
       <c r="G88" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H88" s="36"/>
+      <c r="H88" s="36">
+        <v>0</v>
+      </c>
       <c r="I88" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -5983,7 +6155,9 @@
       <c r="G89" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H89" s="36"/>
+      <c r="H89" s="36">
+        <v>0</v>
+      </c>
       <c r="I89" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -6026,7 +6200,9 @@
       <c r="G90" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H90" s="36"/>
+      <c r="H90" s="36">
+        <v>0</v>
+      </c>
       <c r="I90" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -6069,7 +6245,9 @@
       <c r="G91" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H91" s="36"/>
+      <c r="H91" s="36">
+        <v>0</v>
+      </c>
       <c r="I91" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -6112,7 +6290,9 @@
       <c r="G92" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H92" s="36"/>
+      <c r="H92" s="36">
+        <v>0</v>
+      </c>
       <c r="I92" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -6155,7 +6335,9 @@
       <c r="G93" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H93" s="36"/>
+      <c r="H93" s="36">
+        <v>0</v>
+      </c>
       <c r="I93" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -6198,7 +6380,9 @@
       <c r="G94" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H94" s="36"/>
+      <c r="H94" s="36">
+        <v>0</v>
+      </c>
       <c r="I94" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -6241,7 +6425,9 @@
       <c r="G95" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H95" s="36"/>
+      <c r="H95" s="36">
+        <v>0</v>
+      </c>
       <c r="I95" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -6284,7 +6470,9 @@
       <c r="G96" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H96" s="36"/>
+      <c r="H96" s="36">
+        <v>0</v>
+      </c>
       <c r="I96" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -6327,7 +6515,9 @@
       <c r="G97" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H97" s="36"/>
+      <c r="H97" s="36">
+        <v>0</v>
+      </c>
       <c r="I97" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -6370,7 +6560,9 @@
       <c r="G98" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H98" s="36"/>
+      <c r="H98" s="36">
+        <v>0</v>
+      </c>
       <c r="I98" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -6413,7 +6605,9 @@
       <c r="G99" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H99" s="36"/>
+      <c r="H99" s="36">
+        <v>0</v>
+      </c>
       <c r="I99" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -6456,7 +6650,9 @@
       <c r="G100" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H100" s="36"/>
+      <c r="H100" s="36">
+        <v>0</v>
+      </c>
       <c r="I100" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -6499,7 +6695,9 @@
       <c r="G101" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H101" s="36"/>
+      <c r="H101" s="36">
+        <v>0</v>
+      </c>
       <c r="I101" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -6542,7 +6740,9 @@
       <c r="G102" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H102" s="36"/>
+      <c r="H102" s="36">
+        <v>0</v>
+      </c>
       <c r="I102" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -6585,7 +6785,9 @@
       <c r="G103" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H103" s="36"/>
+      <c r="H103" s="36">
+        <v>0</v>
+      </c>
       <c r="I103" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -6628,7 +6830,9 @@
       <c r="G104" s="36">
         <v>3143839000</v>
       </c>
-      <c r="H104" s="36"/>
+      <c r="H104" s="36">
+        <v>0</v>
+      </c>
       <c r="I104" s="35">
         <v>3538008729.5589514</v>
       </c>
@@ -6671,7 +6875,9 @@
       <c r="G105" s="36">
         <v>2011140000</v>
       </c>
-      <c r="H105" s="36"/>
+      <c r="H105" s="36">
+        <v>0</v>
+      </c>
       <c r="I105" s="35">
         <v>2263293848.6324973</v>
       </c>
@@ -6714,7 +6920,9 @@
       <c r="G106" s="36">
         <v>1584535000</v>
       </c>
-      <c r="H106" s="36"/>
+      <c r="H106" s="36">
+        <v>0</v>
+      </c>
       <c r="I106" s="35">
         <v>1783202179.2355373</v>
       </c>
@@ -6757,7 +6965,9 @@
       <c r="G107" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H107" s="36"/>
+      <c r="H107" s="36">
+        <v>0</v>
+      </c>
       <c r="I107" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -6800,7 +7010,9 @@
       <c r="G108" s="36">
         <v>1736894000</v>
       </c>
-      <c r="H108" s="36"/>
+      <c r="H108" s="36">
+        <v>0</v>
+      </c>
       <c r="I108" s="35">
         <v>1954663110.5638826</v>
       </c>
@@ -6843,7 +7055,9 @@
       <c r="G109" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H109" s="36"/>
+      <c r="H109" s="36">
+        <v>0</v>
+      </c>
       <c r="I109" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -6886,7 +7100,9 @@
       <c r="G110" s="36">
         <v>2590104000</v>
       </c>
-      <c r="H110" s="36"/>
+      <c r="H110" s="36">
+        <v>0</v>
+      </c>
       <c r="I110" s="35">
         <v>2914847511.0353961</v>
       </c>
@@ -6929,7 +7145,9 @@
       <c r="G111" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H111" s="36"/>
+      <c r="H111" s="36">
+        <v>0</v>
+      </c>
       <c r="I111" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -6972,7 +7190,9 @@
       <c r="G112" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H112" s="36"/>
+      <c r="H112" s="36">
+        <v>0</v>
+      </c>
       <c r="I112" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -7015,7 +7235,9 @@
       <c r="G113" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H113" s="36"/>
+      <c r="H113" s="36">
+        <v>0</v>
+      </c>
       <c r="I113" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -7058,7 +7280,9 @@
       <c r="G114" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H114" s="36"/>
+      <c r="H114" s="36">
+        <v>0</v>
+      </c>
       <c r="I114" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -7101,7 +7325,9 @@
       <c r="G115" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H115" s="36"/>
+      <c r="H115" s="36">
+        <v>0</v>
+      </c>
       <c r="I115" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -7144,7 +7370,9 @@
       <c r="G116" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H116" s="36"/>
+      <c r="H116" s="36">
+        <v>0</v>
+      </c>
       <c r="I116" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -7187,7 +7415,9 @@
       <c r="G117" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H117" s="36"/>
+      <c r="H117" s="36">
+        <v>0</v>
+      </c>
       <c r="I117" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -7230,7 +7460,9 @@
       <c r="G118" s="36">
         <v>3143839000</v>
       </c>
-      <c r="H118" s="36"/>
+      <c r="H118" s="36">
+        <v>0</v>
+      </c>
       <c r="I118" s="35">
         <v>3538008729.5589514</v>
       </c>
@@ -7273,7 +7505,9 @@
       <c r="G119" s="36">
         <v>2011140000</v>
       </c>
-      <c r="H119" s="36"/>
+      <c r="H119" s="36">
+        <v>0</v>
+      </c>
       <c r="I119" s="35">
         <v>2263293848.6324973</v>
       </c>
@@ -7316,7 +7550,9 @@
       <c r="G120" s="36">
         <v>1584535000</v>
       </c>
-      <c r="H120" s="36"/>
+      <c r="H120" s="36">
+        <v>0</v>
+      </c>
       <c r="I120" s="35">
         <v>1783202179.2355373</v>
       </c>
@@ -7359,7 +7595,9 @@
       <c r="G121" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H121" s="36"/>
+      <c r="H121" s="36">
+        <v>0</v>
+      </c>
       <c r="I121" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -7402,7 +7640,9 @@
       <c r="G122" s="36">
         <v>1736894000</v>
       </c>
-      <c r="H122" s="36"/>
+      <c r="H122" s="36">
+        <v>0</v>
+      </c>
       <c r="I122" s="35">
         <v>1954663110.5638826</v>
       </c>
@@ -7445,7 +7685,9 @@
       <c r="G123" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H123" s="36"/>
+      <c r="H123" s="36">
+        <v>0</v>
+      </c>
       <c r="I123" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -7488,7 +7730,9 @@
       <c r="G124" s="36">
         <v>2590104000</v>
       </c>
-      <c r="H124" s="36"/>
+      <c r="H124" s="36">
+        <v>0</v>
+      </c>
       <c r="I124" s="35">
         <v>2914847511.0353961</v>
       </c>
@@ -7531,7 +7775,9 @@
       <c r="G125" s="36">
         <v>3113017000</v>
       </c>
-      <c r="H125" s="36"/>
+      <c r="H125" s="36">
+        <v>0</v>
+      </c>
       <c r="I125" s="35">
         <v>3503322660.9061441</v>
       </c>
@@ -7574,7 +7820,9 @@
       <c r="G126" s="36">
         <v>1991423000</v>
       </c>
-      <c r="H126" s="36"/>
+      <c r="H126" s="36">
+        <v>0</v>
+      </c>
       <c r="I126" s="35">
         <v>2241104786.9311819</v>
       </c>
@@ -7617,7 +7865,9 @@
       <c r="G127" s="36">
         <v>1569000000</v>
       </c>
-      <c r="H127" s="36"/>
+      <c r="H127" s="36">
+        <v>0</v>
+      </c>
       <c r="I127" s="35">
         <v>1765718472.6280129</v>
       </c>
@@ -7660,7 +7910,9 @@
       <c r="G128" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H128" s="36"/>
+      <c r="H128" s="36">
+        <v>0</v>
+      </c>
       <c r="I128" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -7703,7 +7955,9 @@
       <c r="G129" s="36">
         <v>1719865000</v>
       </c>
-      <c r="H129" s="36"/>
+      <c r="H129" s="36">
+        <v>0</v>
+      </c>
       <c r="I129" s="35">
         <v>1935498768.3260624</v>
       </c>
@@ -7746,7 +8000,9 @@
       <c r="G130" s="36">
         <v>1900904000</v>
       </c>
-      <c r="H130" s="36"/>
+      <c r="H130" s="36">
+        <v>0</v>
+      </c>
       <c r="I130" s="35">
         <v>2139236821.8478711</v>
       </c>
@@ -7789,7 +8045,9 @@
       <c r="G131" s="36">
         <v>2564711000</v>
       </c>
-      <c r="H131" s="36"/>
+      <c r="H131" s="36">
+        <v>0</v>
+      </c>
       <c r="I131" s="35">
         <v>2886270335.254807</v>
       </c>
@@ -7832,7 +8090,9 @@
       <c r="G132" s="36">
         <v>1538827000</v>
       </c>
-      <c r="H132" s="36"/>
+      <c r="H132" s="36">
+        <v>0</v>
+      </c>
       <c r="I132" s="35">
         <v>1731762838.1594403</v>
       </c>
@@ -7875,7 +8135,9 @@
       <c r="G133" s="36">
         <v>2202959000</v>
       </c>
-      <c r="H133" s="36"/>
+      <c r="H133" s="36">
+        <v>0</v>
+      </c>
       <c r="I133" s="35">
         <v>2479162630.3360872</v>
       </c>
@@ -7918,7 +8180,9 @@
       <c r="G134" s="36">
         <v>3143839000</v>
       </c>
-      <c r="H134" s="36"/>
+      <c r="H134" s="36">
+        <v>0</v>
+      </c>
       <c r="I134" s="35">
         <v>3538008729.5589514</v>
       </c>
@@ -7961,7 +8225,9 @@
       <c r="G135" s="36">
         <v>2011140000</v>
       </c>
-      <c r="H135" s="36"/>
+      <c r="H135" s="36">
+        <v>0</v>
+      </c>
       <c r="I135" s="35">
         <v>2263293848.6324973</v>
       </c>
@@ -8004,7 +8270,9 @@
       <c r="G136" s="36">
         <v>1584535000</v>
       </c>
-      <c r="H136" s="36"/>
+      <c r="H136" s="36">
+        <v>0</v>
+      </c>
       <c r="I136" s="35">
         <v>1783202179.2355373</v>
       </c>
@@ -8047,7 +8315,9 @@
       <c r="G137" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H137" s="36"/>
+      <c r="H137" s="36">
+        <v>0</v>
+      </c>
       <c r="I137" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -8090,7 +8360,9 @@
       <c r="G138" s="36">
         <v>1736894000</v>
       </c>
-      <c r="H138" s="36"/>
+      <c r="H138" s="36">
+        <v>0</v>
+      </c>
       <c r="I138" s="35">
         <v>1954663110.5638826</v>
       </c>
@@ -8133,7 +8405,9 @@
       <c r="G139" s="36">
         <v>1919724000</v>
       </c>
-      <c r="H139" s="36"/>
+      <c r="H139" s="36">
+        <v>0</v>
+      </c>
       <c r="I139" s="35">
         <v>2160416228.157897</v>
       </c>
@@ -8176,7 +8450,9 @@
       <c r="G140" s="36">
         <v>2590104000</v>
       </c>
-      <c r="H140" s="36"/>
+      <c r="H140" s="36">
+        <v>0</v>
+      </c>
       <c r="I140" s="35">
         <v>2914847511.0353961</v>
       </c>
@@ -8219,7 +8495,9 @@
       <c r="G141" s="36">
         <v>1554063000</v>
       </c>
-      <c r="H141" s="36"/>
+      <c r="H141" s="36">
+        <v>0</v>
+      </c>
       <c r="I141" s="35">
         <v>1748908931.292275</v>
       </c>
@@ -8262,7 +8540,9 @@
       <c r="G142" s="36">
         <v>2224770000</v>
       </c>
-      <c r="H142" s="36"/>
+      <c r="H142" s="36">
+        <v>0</v>
+      </c>
       <c r="I142" s="35">
         <v>2503708616.2946715</v>
       </c>
@@ -8305,7 +8585,9 @@
       <c r="G143" s="36">
         <v>2030857000</v>
       </c>
-      <c r="H143" s="36"/>
+      <c r="H143" s="36">
+        <v>0</v>
+      </c>
       <c r="I143" s="35">
         <v>2285482910.3338127</v>
       </c>
@@ -8348,7 +8630,9 @@
       <c r="G144" s="36">
         <v>1600069000</v>
       </c>
-      <c r="H144" s="36"/>
+      <c r="H144" s="36">
+        <v>0</v>
+      </c>
       <c r="I144" s="35">
         <v>1800683762.487875</v>
       </c>
@@ -8391,7 +8675,9 @@
       <c r="G145" s="36">
         <v>1938545000</v>
       </c>
-      <c r="H145" s="36"/>
+      <c r="H145" s="36">
+        <v>0</v>
+      </c>
       <c r="I145" s="35">
         <v>2181596696.1455159</v>
       </c>
@@ -8434,7 +8720,9 @@
       <c r="G146" s="36">
         <v>1753922000</v>
       </c>
-      <c r="H146" s="36"/>
+      <c r="H146" s="36">
+        <v>0</v>
+      </c>
       <c r="I146" s="35">
         <v>1973826391.1241093</v>
       </c>
@@ -8477,7 +8765,9 @@
       <c r="G147" s="36">
         <v>1938545000</v>
       </c>
-      <c r="H147" s="36"/>
+      <c r="H147" s="36">
+        <v>0</v>
+      </c>
       <c r="I147" s="35">
         <v>2181596696.1455159</v>
       </c>
@@ -8520,7 +8810,9 @@
       <c r="G148" s="36">
         <v>2615497000</v>
       </c>
-      <c r="H148" s="36"/>
+      <c r="H148" s="36">
+        <v>0</v>
+      </c>
       <c r="I148" s="35">
         <v>2943423625.138391</v>
       </c>
@@ -8563,7 +8855,9 @@
       <c r="G149" s="36">
         <v>1569299000</v>
       </c>
-      <c r="H149" s="36"/>
+      <c r="H149" s="36">
+        <v>0</v>
+      </c>
       <c r="I149" s="35">
         <v>1766055024.4251094</v>
       </c>
@@ -8606,7 +8900,9 @@
       <c r="G150" s="36">
         <v>2246582000</v>
       </c>
-      <c r="H150" s="36"/>
+      <c r="H150" s="36">
+        <v>0</v>
+      </c>
       <c r="I150" s="35">
         <v>2528254602.2532554</v>
       </c>
